--- a/bigclasses_backend/backend/media/enrollments/enrollments.xlsx
+++ b/bigclasses_backend/backend/media/enrollments/enrollments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
@@ -536,6 +536,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-09 23:12:40</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>uma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>umadevitotakura9@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Data Analytics</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9346839316</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bigclasses_backend/backend/media/enrollments/enrollments.xlsx
+++ b/bigclasses_backend/backend/media/enrollments/enrollments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,7 @@
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -563,6 +564,115 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:05:37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ruchi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ruchitareddy216@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Data-analytics</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9127634568</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:16:11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ruchi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ruchitareddy216@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Data-analytics</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9127634568</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:18:10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ruchi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ruchitareddy216@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Data-analytics</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9127634568</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:32</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ruchi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ruchitareddy216@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Data-analytics</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9127634568</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
